--- a/biology/Zoologie/Hybosoridae/Hybosoridae.xlsx
+++ b/biology/Zoologie/Hybosoridae/Hybosoridae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Hybosoridae sont une famille de coléoptères de près de 600 espèces. Elle appartient à la super-famille des Scarabaeoidea. Le genre Liparochrus comprend 25 espèces.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les espèces appartenant à cette famille mesurent entre 5 et 7 millimètres de long.
 </t>
@@ -542,9 +556,11 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Cette famille se décompose en 5 sous-familles[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Cette famille se décompose en 5 sous-familles :
 Anaidinae Nilolaiev, 1996
 Ceratocanthinae Martinez, 1968
 Hybosorinae Erichson, 1847
@@ -579,7 +595,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Erichson, 1847 : Conspectus insectorum coleopterorum quae, in Republica Peruana observata sunt. Archiv für Naturgeschichte vol. 13, p. 67-185 (texte intégral).</t>
         </is>
